--- a/элтех--/4_сем/лаба_2/Лист Microsoft Excel.xlsx
+++ b/элтех--/4_сем/лаба_2/Лист Microsoft Excel.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +40,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -52,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -88,11 +92,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -102,6 +158,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,11 +423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441469896"/>
-        <c:axId val="441471072"/>
+        <c:axId val="326219048"/>
+        <c:axId val="326221400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441469896"/>
+        <c:axId val="326219048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,12 +484,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441471072"/>
+        <c:crossAx val="326221400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441471072"/>
+        <c:axId val="326221400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,7 +546,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441469896"/>
+        <c:crossAx val="326219048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -478,6 +558,487 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Естественная характеристака </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8359999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$A$1:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>искуственная характеристика</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$E$1:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2539999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$1:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1002064"/>
+        <c:axId val="1006376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1002064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>э,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> Н*м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1006376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1006376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>n, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1050"/>
+                  <a:t>об/мин</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -555,7 +1116,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1089,6 +2206,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520262</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1395,13 +2547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1369</v>
       </c>
@@ -1415,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1244</v>
       </c>
@@ -1429,7 +2581,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1120</v>
       </c>
@@ -1448,4 +2600,49 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4">
+        <v>1244</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1.847</v>
+      </c>
+      <c r="D1" s="8">
+        <v>1581</v>
+      </c>
+      <c r="E1" s="9">
+        <v>2.9409999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1120</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1345</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.2539999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/элтех--/4_сем/лаба_2/Лист Microsoft Excel.xlsx
+++ b/элтех--/4_сем/лаба_2/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -423,11 +423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326219048"/>
-        <c:axId val="326221400"/>
+        <c:axId val="354456992"/>
+        <c:axId val="354458560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326219048"/>
+        <c:axId val="354456992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,12 +484,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326221400"/>
+        <c:crossAx val="354458560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326221400"/>
+        <c:axId val="354458560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326219048"/>
+        <c:crossAx val="354456992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -611,7 +611,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11798122109403122"/>
+          <c:y val="9.0602710154558341E-2"/>
+          <c:w val="0.59798113522143326"/>
+          <c:h val="0.81408556394175957"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -714,10 +724,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.9409999999999998</c:v>
+                  <c:v>2.468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2539999999999996</c:v>
+                  <c:v>3.7360000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,11 +757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1002064"/>
-        <c:axId val="1006376"/>
+        <c:axId val="354452680"/>
+        <c:axId val="354454248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1002064"/>
+        <c:axId val="354452680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,12 +883,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006376"/>
+        <c:crossAx val="354454248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1006376"/>
+        <c:axId val="354454248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +1005,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002064"/>
+        <c:crossAx val="354452680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2227,16 +2237,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520262</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346327</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>201764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>591378</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>159854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2551,9 +2561,9 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1369</v>
       </c>
@@ -2567,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1244</v>
       </c>
@@ -2581,7 +2591,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1120</v>
       </c>
@@ -2607,12 +2617,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>1244</v>
       </c>
@@ -2623,10 +2633,10 @@
         <v>1581</v>
       </c>
       <c r="E1" s="9">
-        <v>2.9409999999999998</v>
+        <v>2.468</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1120</v>
       </c>
@@ -2637,7 +2647,7 @@
         <v>1345</v>
       </c>
       <c r="E2" s="11">
-        <v>4.2539999999999996</v>
+        <v>3.7360000000000002</v>
       </c>
     </row>
   </sheetData>
